--- a/src/assets/student-sample-file.xlsx
+++ b/src/assets/student-sample-file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F661E2-47D7-4760-BF04-94C11CB52476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AAA1B5-63BD-4F94-ADE5-82F290B501A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>studentId</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Science</t>
+  </si>
+  <si>
+    <t>fourthSubjectCode</t>
+  </si>
+  <si>
+    <t>BI-01</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -414,7 +420,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -468,6 +476,9 @@
       <c r="L2" s="3">
         <v>9978734</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K10" s="4"/>

--- a/src/assets/student-sample-file.xlsx
+++ b/src/assets/student-sample-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AAA1B5-63BD-4F94-ADE5-82F290B501A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC1DE6-4526-4DF3-8857-1A33158D31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>studentId</t>
   </si>
@@ -79,10 +79,16 @@
     <t>Science</t>
   </si>
   <si>
+    <t>motherName</t>
+  </si>
+  <si>
+    <t>sokhina</t>
+  </si>
+  <si>
     <t>fourthSubjectCode</t>
   </si>
   <si>
-    <t>BI-01</t>
+    <t>BD-02</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -423,7 +429,9 @@
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -479,6 +487,9 @@
       <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K10" s="4"/>
